--- a/User Acceptance Testing/Testcases Report.xlsx
+++ b/User Acceptance Testing/Testcases Report.xlsx
@@ -418,7 +418,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="5">
-        <v>44882.0</v>
+        <v>44891.0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>

--- a/User Acceptance Testing/Testcases Report.xlsx
+++ b/User Acceptance Testing/Testcases Report.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjYpUuxzOVlQlIiDdLeYiSYd86kJg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mi4dtZ1JnuDgdUUlSAywnbnM/pC2g=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -135,66 +135,13 @@
     <t>Fayeka Masoodha</t>
   </si>
   <si>
-    <t>Raw_Data_check_box_TC_OO_003</t>
+    <t>Missing_values_TC_OO_007</t>
   </si>
   <si>
     <t>Functional</t>
   </si>
   <si>
     <t>Home page</t>
-  </si>
-  <si>
-    <t>Verify the user is able to access the site and view the raw data</t>
-  </si>
-  <si>
-    <t>1.Enter URL and click go
-2. Click the raw data check box</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enter GRE score                                                                                            Enter TOEFL score 
-Enter SOP score                                                                                             Enter LOR score
-Enter research experience                                                                       Enter CGPA   Enter University Rank                                                                                                                                                            Click predict button</t>
-  </si>
-  <si>
-    <t>Show raw data table</t>
-  </si>
-  <si>
-    <t>Dataset_look_check_box_TC_OO_004</t>
-  </si>
-  <si>
-    <t>Verify the user is able to click the checkbox and view the dataset</t>
-  </si>
-  <si>
-    <t>1.Enter URL and click go
-2. Click the dataset look check box</t>
-  </si>
-  <si>
-    <t>Click the Prediction model check box
- Enter GRE score                                                                                            Enter TOEFL score 
-Enter SOP score                                                                                             Enter LOR score
-Enter research experience                                                                       Enter CGPA   Enter University Rank                                                                                                                                                            Click predict button</t>
-  </si>
-  <si>
-    <t>Show raw Dataset first 3 columns</t>
-  </si>
-  <si>
-    <t>Gunnala Hema</t>
-  </si>
-  <si>
-    <t>Show_columns_check_box_TC_OO_005</t>
-  </si>
-  <si>
-    <t>Verify the user is able to click the checkbox and view the column names</t>
-  </si>
-  <si>
-    <t>1.Enter URL and click go
-2. Click the show columns check box</t>
-  </si>
-  <si>
-    <t>Show columns names of the table</t>
-  </si>
-  <si>
-    <t>Missing_values_check_box_TC_OO_007</t>
   </si>
   <si>
     <t>Verify the user is able to click the checkbox and view the missing values count</t>
@@ -204,10 +151,13 @@
 2. Click the missing values check box</t>
   </si>
   <si>
-    <t>Show missing values in the dataset</t>
+    <t>Click the Prediction model check box
+ Enter GRE score                                                                                            Enter TOEFL score 
+Enter SOP score                                                                                             Enter LOR score
+Enter research experience                                                                       Enter CGPA   Enter University Rank                                                                                                                                                            Click predict button</t>
   </si>
   <si>
-    <t>Barath Srinivasan</t>
+    <t>Show missing values in the dataset</t>
   </si>
   <si>
     <t>Prediction_model_check_box_TC_OO_010</t>
@@ -232,7 +182,7 @@
     <t xml:space="preserve"> Barath Srinivasan</t>
   </si>
   <si>
-    <t>Prediction_model_check_box_TC_OO_011</t>
+    <t>Prediction_model_check_TC_OO_011</t>
   </si>
   <si>
     <t>1.Enter URL and click go
@@ -246,7 +196,10 @@
     <t>GRE score - 300                                   TOEFL - 69                                              SOP - 3                                                LOR - 4                                          Research - YES                                         CGPA - 9                                                 RANK - 1</t>
   </si>
   <si>
-    <t>Chance of Admittance for University Rank 5 = 66.4992425 %</t>
+    <t xml:space="preserve">Chance of Admittance for University Rank 5 = 66.4992425 %          </t>
+  </si>
+  <si>
+    <t>Gunnala Hema</t>
   </si>
   <si>
     <t>Test Scenarios</t>
@@ -522,7 +475,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -574,7 +527,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -626,7 +579,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -678,7 +631,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -730,7 +683,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -782,7 +735,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -834,7 +787,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -886,7 +839,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -938,7 +891,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -990,7 +943,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1042,7 +995,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1094,7 +1047,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1146,7 +1099,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1198,7 +1151,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1250,7 +1203,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1302,7 +1255,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1354,7 +1307,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1406,7 +1359,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1458,7 +1411,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1510,7 +1463,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1562,7 +1515,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -1614,7 +1567,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="276225"/>
@@ -2165,8 +2118,8 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" ht="55.5" customHeight="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="44.25" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2175,14 +2128,14 @@
       <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="17" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -2200,24 +2153,24 @@
       <c r="L8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" ht="45.75" customHeight="1">
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+    </row>
+    <row r="9" ht="150.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -2227,17 +2180,17 @@
       <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="17" t="s">
         <v>48</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -2253,7 +2206,7 @@
         <v>29</v>
       </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="22" t="s">
         <v>49</v>
       </c>
       <c r="O9" s="6"/>
@@ -2269,8 +2222,8 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" ht="42.75" customHeight="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="146.25" customHeight="1">
+      <c r="A10" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2279,17 +2232,17 @@
       <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
+      <c r="D10" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="20" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -2306,7 +2259,7 @@
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="19" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -2321,97 +2274,49 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" ht="44.25" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-    </row>
-    <row r="12" ht="150.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>60</v>
-      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -2425,45 +2330,21 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" ht="146.25" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>60</v>
-      </c>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -2821,7 +2702,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2849,7 +2730,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -2877,7 +2758,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -29931,7 +29812,6 @@
       <c r="K994" s="6"/>
       <c r="L994" s="6"/>
       <c r="M994" s="6"/>
-      <c r="N994" s="6"/>
       <c r="O994" s="6"/>
       <c r="P994" s="6"/>
       <c r="Q994" s="6"/>
@@ -29945,91 +29825,8 @@
       <c r="Y994" s="6"/>
       <c r="Z994" s="6"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
-      <c r="A995" s="6"/>
-      <c r="B995" s="6"/>
-      <c r="C995" s="6"/>
-      <c r="D995" s="6"/>
-      <c r="E995" s="6"/>
-      <c r="F995" s="6"/>
-      <c r="G995" s="6"/>
-      <c r="H995" s="6"/>
-      <c r="I995" s="6"/>
-      <c r="J995" s="6"/>
+    <row r="995" ht="15.0" customHeight="1">
       <c r="K995" s="6"/>
-      <c r="L995" s="6"/>
-      <c r="M995" s="6"/>
-      <c r="N995" s="6"/>
-      <c r="O995" s="6"/>
-      <c r="P995" s="6"/>
-      <c r="Q995" s="6"/>
-      <c r="R995" s="6"/>
-      <c r="S995" s="6"/>
-      <c r="T995" s="6"/>
-      <c r="U995" s="6"/>
-      <c r="V995" s="6"/>
-      <c r="W995" s="6"/>
-      <c r="X995" s="6"/>
-      <c r="Y995" s="6"/>
-      <c r="Z995" s="6"/>
-    </row>
-    <row r="996" ht="14.25" customHeight="1">
-      <c r="A996" s="6"/>
-      <c r="B996" s="6"/>
-      <c r="C996" s="6"/>
-      <c r="D996" s="6"/>
-      <c r="E996" s="6"/>
-      <c r="F996" s="6"/>
-      <c r="G996" s="6"/>
-      <c r="H996" s="6"/>
-      <c r="I996" s="6"/>
-      <c r="J996" s="6"/>
-      <c r="K996" s="6"/>
-      <c r="L996" s="6"/>
-      <c r="M996" s="6"/>
-      <c r="N996" s="6"/>
-      <c r="O996" s="6"/>
-      <c r="P996" s="6"/>
-      <c r="Q996" s="6"/>
-      <c r="R996" s="6"/>
-      <c r="S996" s="6"/>
-      <c r="T996" s="6"/>
-      <c r="U996" s="6"/>
-      <c r="V996" s="6"/>
-      <c r="W996" s="6"/>
-      <c r="X996" s="6"/>
-      <c r="Y996" s="6"/>
-      <c r="Z996" s="6"/>
-    </row>
-    <row r="997" ht="14.25" customHeight="1">
-      <c r="A997" s="6"/>
-      <c r="B997" s="6"/>
-      <c r="C997" s="6"/>
-      <c r="D997" s="6"/>
-      <c r="E997" s="6"/>
-      <c r="F997" s="6"/>
-      <c r="G997" s="6"/>
-      <c r="H997" s="6"/>
-      <c r="I997" s="6"/>
-      <c r="J997" s="6"/>
-      <c r="K997" s="6"/>
-      <c r="L997" s="6"/>
-      <c r="M997" s="6"/>
-      <c r="O997" s="6"/>
-      <c r="P997" s="6"/>
-      <c r="Q997" s="6"/>
-      <c r="R997" s="6"/>
-      <c r="S997" s="6"/>
-      <c r="T997" s="6"/>
-      <c r="U997" s="6"/>
-      <c r="V997" s="6"/>
-      <c r="W997" s="6"/>
-      <c r="X997" s="6"/>
-      <c r="Y997" s="6"/>
-      <c r="Z997" s="6"/>
-    </row>
-    <row r="998" ht="15.0" customHeight="1">
-      <c r="K998" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -30062,7 +29859,7 @@
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="23" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -30070,7 +29867,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -30078,7 +29875,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -30086,7 +29883,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -30094,7 +29891,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -30102,13 +29899,13 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -30116,7 +29913,7 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -30124,7 +29921,7 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -30132,7 +29929,7 @@
         <v>3.0</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -30140,7 +29937,7 @@
         <v>4.0</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -30148,7 +29945,7 @@
         <v>5.0</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>

--- a/User Acceptance Testing/Testcases Report.xlsx
+++ b/User Acceptance Testing/Testcases Report.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mi4dtZ1JnuDgdUUlSAywnbnM/pC2g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mg+DqkD15Sk+tRTPISdfvwXkd1j/A=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -113,7 +113,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>Preeti Krishnaveni</t>
+    <t>Gunnala Hema</t>
   </si>
   <si>
     <t>Homepage_TC_UI_OO2</t>
@@ -135,7 +135,7 @@
     <t>Fayeka Masoodha</t>
   </si>
   <si>
-    <t>Missing_values_TC_OO_007</t>
+    <t>Missing_values_TC_OO_001</t>
   </si>
   <si>
     <t>Functional</t>
@@ -144,11 +144,11 @@
     <t>Home page</t>
   </si>
   <si>
-    <t>Verify the user is able to click the checkbox and view the missing values count</t>
+    <t>Verify the user is access the site and view the missing values count</t>
   </si>
   <si>
     <t>1.Enter URL and click go
-2. Click the missing values check box</t>
+2. Enter some values</t>
   </si>
   <si>
     <t>Click the Prediction model check box
@@ -157,13 +157,16 @@
 Enter research experience                                                                       Enter CGPA   Enter University Rank                                                                                                                                                            Click predict button</t>
   </si>
   <si>
-    <t>Show missing values in the dataset</t>
+    <t>Show missing fields in the input</t>
   </si>
   <si>
-    <t>Prediction_model_check_box_TC_OO_010</t>
+    <t>Preeti Krishnaveni</t>
   </si>
   <si>
-    <t>Verify the user is access the site , able to provide the input in the boxes given within the  given range of values and get the result of admission in university or not</t>
+    <t>Prediction_model_TC_OO_010</t>
+  </si>
+  <si>
+    <t>Verify the user is access the site , able to provide the input in the boxes and get the result of admission in university or not</t>
   </si>
   <si>
     <t>1.Enter URL and click go
@@ -173,33 +176,13 @@
 8. Enter University Rank                                                                                  9. Click predict button</t>
   </si>
   <si>
-    <t>GRE score - 255                                   TOEFL - 55                                              SOP - 1                                                LOR - 2                                          Research - NO                                         CGPA - 6                                                 RANK - 1</t>
+    <t>GRE score - 330                                   TOEFL - 110                                              SOP - 3.5                                                LOR - 3.5                                          Research - 1                                         CGPA - 8                                                 RANK - 4</t>
   </si>
   <si>
-    <t>Chance of Admittance for University Rank 1 = 12.2375 %</t>
+    <t>Top 3 colleges that will accept the applicant                                                 1.  PSG                                                                                                       2. CIT                                                                                                         3. GCT</t>
   </si>
   <si>
     <t xml:space="preserve"> Barath Srinivasan</t>
-  </si>
-  <si>
-    <t>Prediction_model_check_TC_OO_011</t>
-  </si>
-  <si>
-    <t>1.Enter URL and click go
-2. Click the Prediction model check box
-3.  Enter GRE score                                                                                           4. Enter TOEFL score 
-5. Enter SOP score                                                                                             6. Enter LOR score
-7.  Enter research experience                                                                         8. Enter CGPA  
-9. Enter University Rank                                                                                  10. Click predict button</t>
-  </si>
-  <si>
-    <t>GRE score - 300                                   TOEFL - 69                                              SOP - 3                                                LOR - 4                                          Research - YES                                         CGPA - 9                                                 RANK - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chance of Admittance for University Rank 5 = 66.4992425 %          </t>
-  </si>
-  <si>
-    <t>Gunnala Hema</t>
   </si>
   <si>
     <t>Test Scenarios</t>
@@ -2128,17 +2111,17 @@
       <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="20" t="s">
         <v>43</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -2155,7 +2138,7 @@
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
@@ -2171,8 +2154,8 @@
       <c r="Z8" s="21"/>
     </row>
     <row r="9" ht="150.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
+      <c r="A9" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>38</v>
@@ -2181,17 +2164,17 @@
         <v>39</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="19" t="s">
         <v>48</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>26</v>
@@ -2207,7 +2190,7 @@
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -2222,45 +2205,21 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" ht="146.25" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>45</v>
-      </c>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -2674,7 +2633,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -29784,7 +29743,6 @@
       <c r="K993" s="6"/>
       <c r="L993" s="6"/>
       <c r="M993" s="6"/>
-      <c r="N993" s="6"/>
       <c r="O993" s="6"/>
       <c r="P993" s="6"/>
       <c r="Q993" s="6"/>
@@ -29798,35 +29756,8 @@
       <c r="Y993" s="6"/>
       <c r="Z993" s="6"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
-      <c r="A994" s="6"/>
-      <c r="B994" s="6"/>
-      <c r="C994" s="6"/>
-      <c r="D994" s="6"/>
-      <c r="E994" s="6"/>
-      <c r="F994" s="6"/>
-      <c r="G994" s="6"/>
-      <c r="H994" s="6"/>
-      <c r="I994" s="6"/>
-      <c r="J994" s="6"/>
+    <row r="994" ht="15.0" customHeight="1">
       <c r="K994" s="6"/>
-      <c r="L994" s="6"/>
-      <c r="M994" s="6"/>
-      <c r="O994" s="6"/>
-      <c r="P994" s="6"/>
-      <c r="Q994" s="6"/>
-      <c r="R994" s="6"/>
-      <c r="S994" s="6"/>
-      <c r="T994" s="6"/>
-      <c r="U994" s="6"/>
-      <c r="V994" s="6"/>
-      <c r="W994" s="6"/>
-      <c r="X994" s="6"/>
-      <c r="Y994" s="6"/>
-      <c r="Z994" s="6"/>
-    </row>
-    <row r="995" ht="15.0" customHeight="1">
-      <c r="K995" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -29859,7 +29790,7 @@
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -29867,7 +29798,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -29875,7 +29806,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -29883,7 +29814,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -29891,7 +29822,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -29899,13 +29830,13 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -29913,7 +29844,7 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -29921,7 +29852,7 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -29929,7 +29860,7 @@
         <v>3.0</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -29937,7 +29868,7 @@
         <v>4.0</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -29945,7 +29876,7 @@
         <v>5.0</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
